--- a/biology/Zoologie/Hylarana_latouchii/Hylarana_latouchii.xlsx
+++ b/biology/Zoologie/Hylarana_latouchii/Hylarana_latouchii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Hylarana" latouchii est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis)[1].
-Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[2], cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Hylarana" latouchii est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis).
+Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015, cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud-est de la République populaire de Chine dans les provinces d'Anhui, du Jiangsu, du Zhejiang, du Jiangxi, du Hunan, du Fujian et du Guangxi ;
 à Taïwan.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylarana latouchii présente une coloration générale rousse. Son dos est roux, tandis que ses flancs sont plus clairs et maculés de taches brun foncé.
 </t>
@@ -575,9 +591,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude sur son métabolisme[3], menée à Taïwan par le Department of Life Sciences et la National Cheng Kung University, a montré que l'aptitude de Hylarana latouchii à s'acclimater thermiquement variait au fil des saisons, chose qui ne s'était pas rencontré avec d'autres espèces d'amphibiens tropicaux ou subtropicaux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude sur son métabolisme, menée à Taïwan par le Department of Life Sciences et la National Cheng Kung University, a montré que l'aptitude de Hylarana latouchii à s'acclimater thermiquement variait au fil des saisons, chose qui ne s'était pas rencontré avec d'autres espèces d'amphibiens tropicaux ou subtropicaux.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John David Digues La Touche qui a collecté les premiers spécimens[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John David Digues La Touche qui a collecté les premiers spécimens.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1899 : On a collection of reptiles and batrachians made by Mr. J. D. Latouche in N. W. Fokien, China. Proceedings of the Zoological Society of London, vol. 1899, p. 159-172 (texte intégral).</t>
         </is>
